--- a/medicine/Enfance/Henriette_Robitaillie/Henriette_Robitaillie.xlsx
+++ b/medicine/Enfance/Henriette_Robitaillie/Henriette_Robitaillie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henriette Robitaillie, née le 20 décembre 1909 à Rennes et morte le 18 janvier 1992 à Paris, est une journaliste, écrivaine et scénariste de bande dessinée française. Elle a écrit de nombreux romans pour la jeunesse comme Le Château des Malices en 1945, notamment pour les collections Lisette, "Monique", "Bibliothèque de Suzette" ou pour la collection Signe de piste.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henriette Robitaillie naît le 20 décembre 1909 à Rennes[1]. Fille d'un jeune officier d'artillerie qui passera dans la gendarmerie, atteinte de fièvres paludéennes, elle ne peut suivre une scolarité normale. Elle parvient néanmoins à devenir journaliste et chroniqueuse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henriette Robitaillie naît le 20 décembre 1909 à Rennes. Fille d'un jeune officier d'artillerie qui passera dans la gendarmerie, atteinte de fièvres paludéennes, elle ne peut suivre une scolarité normale. Elle parvient néanmoins à devenir journaliste et chroniqueuse.
 Elle écrit également sous les noms de plume de Cécile Romancère, Édith Orny et Clara.
 Collaborant surtout à des journaux catholiques, elle est très présente dans la presse enfantine des années 1950 à 1970. Elle collabore régulièrement à Bernadette, Âmes vaillantes, La Semaine de Suzette et Lisette.
-De décembre 1950 à mai 1952, elle s'embarque pour un tour du monde qu'elle raconte d'abord dans Bernadette au moyen d'une chronique hebdomadaire, illustrée par Loÿs Pétillot et intitulée D'un bout du monde... à l'autre bout. Ce Voyage au bout de la mer est publié par les Nouvelles Éditions latines en 1952[2]. En 1956, un second tour du monde s'attache aux Nouvelles-Hébrides, à la Nouvelle-Calédonie et à l'Australie.
+De décembre 1950 à mai 1952, elle s'embarque pour un tour du monde qu'elle raconte d'abord dans Bernadette au moyen d'une chronique hebdomadaire, illustrée par Loÿs Pétillot et intitulée D'un bout du monde... à l'autre bout. Ce Voyage au bout de la mer est publié par les Nouvelles Éditions latines en 1952. En 1956, un second tour du monde s'attache aux Nouvelles-Hébrides, à la Nouvelle-Calédonie et à l'Australie.
 Henriette Robitaillie est également scénariste de plusieurs bandes dessinées. En 1957, elle crée Martine et Zozo, dessiné par Tiky (Gaston Jacquement) pour Bernadette, puis Bec-en-fer, dessiné par Jean-Louis Pesch, en 1961 pour Le Pèlerin. Avec ce même dessinateur, elle scénarise plus tard six épisodes de Sylvain et Sylvette dans la collection des albums Fleurette nouvelle série.
-Son entreprise la plus durable en matière de bande dessinée est la série Priscille et Olivier, fruit de sa collaboration avec la dessinatrice Janine Lay[3]. Ces deux personnages apparaissent et se rencontrent en 1957 dans un long récit de 60 pages publié dans Bernadette, intitulé Le Secret du lagon. On les voit se marier dans les épisodes suivants et assurer l'éducation des deux jeunes sœurs jumelles de Priscille, Nicole et Colette, qui grandissent et occupent progressivement le premier plan au point que la série, qui paraît ensuite dans Lisette et Nade, s'intitule Les Jumelles à partir de 1966. En 17 ans d'existence, jusqu'en 1974, les deux séries totalisent plus de 2300 planches en 82 épisodes dont 5 seulement paraissent en album[3].
+Son entreprise la plus durable en matière de bande dessinée est la série Priscille et Olivier, fruit de sa collaboration avec la dessinatrice Janine Lay. Ces deux personnages apparaissent et se rencontrent en 1957 dans un long récit de 60 pages publié dans Bernadette, intitulé Le Secret du lagon. On les voit se marier dans les épisodes suivants et assurer l'éducation des deux jeunes sœurs jumelles de Priscille, Nicole et Colette, qui grandissent et occupent progressivement le premier plan au point que la série, qui paraît ensuite dans Lisette et Nade, s'intitule Les Jumelles à partir de 1966. En 17 ans d'existence, jusqu'en 1974, les deux séries totalisent plus de 2300 planches en 82 épisodes dont 5 seulement paraissent en album.
 Henriette Robitaillie publie aussi quelques nouvelles dans des fanzines et revues de science-fiction comme Satellite, Lunatique et Rivages.
-À partir des années 1970, elle écrit dans le magazine Les Veillées des chaumières, jusqu'à son décès[4][source insuffisante].
+À partir des années 1970, elle écrit dans le magazine Les Veillées des chaumières, jusqu'à son décès[source insuffisante].
 Elle meurt le 18 janvier 1992 dans le 10e arrondissement de Paris, chez les Petites Sœurs des pauvres.
 </t>
         </is>
@@ -550,7 +564,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Romans
 1943 : Mademoiselle Gris-Souris, no 19 Lisette, Éditions de Montsouris
@@ -564,7 +580,7 @@
 1949 : La Rue où errait la mort, no 40 La Frégate, Maison de la bonne presse.
 1949 : L'Etoile et le détective, Collection "Sir Jerry détective", Editions des Deux Mondes.
 1951 : Le Monstre des abîmes, Ill. Pierdec, Romans cinématiques, Maison de la bonne presse.
-1952 : Voyage au bout de la mer, Nouvelles éditions latines[2].
+1952 : Voyage au bout de la mer, Nouvelles éditions latines.
 1953 : Gwenola, Ill. Noël Gloesner, Collection "Monique" édition Fleurus/Maison Mame
 1953 : La Ferme du loup blanc, Ill. Solange Voisin,Collection "Monique" édition Fleurus/Maison Mame
 1954 : Cinq têtes sous le même bonnet, Collection "Monique" édition Fleurus/Maison Mame
@@ -601,7 +617,7 @@
 1962 à 1972 : série Frédérique, dessins d'Alain d'Orange.
 Belles Histoires et Belles Vies, éd. Fleurus :
 no 71 : Marie-Louise Hartzer et les Filles de Notre-Dame du Sacré-Cœur, 1965.
-Les Aventures de Sylvain et Sylvette (albums Fleurette nouvelle série 1967-1979)[5] :
+Les Aventures de Sylvain et Sylvette (albums Fleurette nouvelle série 1967-1979) :
 no 36 La Chasse au canard ;
 no 37 Les compères attaquent ;
 no 38 La Malle à malices ;
